--- a/myshop/Оптимизация.xlsx
+++ b/myshop/Оптимизация.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>products.models</t>
   </si>
@@ -132,6 +132,33 @@
   </si>
   <si>
     <t>исправил</t>
+  </si>
+  <si>
+    <t>37(35)</t>
+  </si>
+  <si>
+    <t>31(29)</t>
+  </si>
+  <si>
+    <t>15(15)</t>
+  </si>
+  <si>
+    <t>11(8)</t>
+  </si>
+  <si>
+    <t>10(4)</t>
+  </si>
+  <si>
+    <t>8(0)</t>
+  </si>
+  <si>
+    <t>16(14)</t>
+  </si>
+  <si>
+    <t>10(8)</t>
+  </si>
+  <si>
+    <t>4(4)</t>
   </si>
 </sst>
 </file>
@@ -510,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,14 +701,14 @@
       <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="1">
-        <v>16</v>
-      </c>
-      <c r="E15" s="1">
-        <v>10</v>
-      </c>
-      <c r="F15" s="1">
-        <v>4</v>
+      <c r="D15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="G15" t="s">
         <v>17</v>
@@ -691,14 +718,14 @@
       <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="1">
-        <v>31</v>
-      </c>
-      <c r="F16" s="1">
-        <v>15</v>
+      <c r="E16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="G16" t="s">
         <v>19</v>
@@ -722,14 +749,14 @@
       <c r="C18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="1">
-        <v>11</v>
-      </c>
-      <c r="E18" s="1">
-        <v>10</v>
-      </c>
-      <c r="F18" s="1">
-        <v>8</v>
+      <c r="D18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
@@ -845,7 +872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>

--- a/myshop/Оптимизация.xlsx
+++ b/myshop/Оптимизация.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>products.models</t>
   </si>
@@ -134,15 +134,6 @@
     <t>исправил</t>
   </si>
   <si>
-    <t>37(35)</t>
-  </si>
-  <si>
-    <t>31(29)</t>
-  </si>
-  <si>
-    <t>15(15)</t>
-  </si>
-  <si>
     <t>11(8)</t>
   </si>
   <si>
@@ -152,13 +143,67 @@
     <t>8(0)</t>
   </si>
   <si>
-    <t>16(14)</t>
-  </si>
-  <si>
-    <t>10(8)</t>
-  </si>
-  <si>
-    <t>4(4)</t>
+    <t>12(10)</t>
+  </si>
+  <si>
+    <t>8(6)</t>
+  </si>
+  <si>
+    <t>6(4)</t>
+  </si>
+  <si>
+    <t>7(5)</t>
+  </si>
+  <si>
+    <t>5(3)</t>
+  </si>
+  <si>
+    <t>2(0)</t>
+  </si>
+  <si>
+    <t>9(7)</t>
+  </si>
+  <si>
+    <t>37(35)(17)</t>
+  </si>
+  <si>
+    <t>31(29)(11)</t>
+  </si>
+  <si>
+    <t>15(15)(0)</t>
+  </si>
+  <si>
+    <t>16(14)(6)</t>
+  </si>
+  <si>
+    <t>10(8)(0)</t>
+  </si>
+  <si>
+    <t>4(4)(0)</t>
+  </si>
+  <si>
+    <t>12(10)(10)</t>
+  </si>
+  <si>
+    <t>8(6)(6)</t>
+  </si>
+  <si>
+    <t>6(6)(0)</t>
+  </si>
+  <si>
+    <t>15(9)(9)</t>
+  </si>
+  <si>
+    <t>13(7)(6)</t>
+  </si>
+  <si>
+    <t>13(11)(11)(9)</t>
+  </si>
+  <si>
+    <t>8(6)(4)(4)</t>
+  </si>
+  <si>
+    <t>6(4)(2)(4)</t>
   </si>
 </sst>
 </file>
@@ -537,15 +582,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I20" activeCellId="1" sqref="G20 I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -617,11 +662,11 @@
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="1">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2</v>
+      <c r="D9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -631,11 +676,11 @@
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="1">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2</v>
+      <c r="D10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -645,11 +690,11 @@
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="1">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2</v>
+      <c r="D11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -659,11 +704,11 @@
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="1">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2</v>
+      <c r="D12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -673,11 +718,11 @@
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="1">
-        <v>6</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2</v>
+      <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -687,11 +732,11 @@
       <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="1">
-        <v>6</v>
-      </c>
-      <c r="E14" s="1">
-        <v>2</v>
+      <c r="D14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -702,13 +747,13 @@
         <v>16</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s">
         <v>17</v>
@@ -719,13 +764,13 @@
         <v>18</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s">
         <v>19</v>
@@ -750,69 +795,69 @@
         <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="1">
-        <v>15</v>
-      </c>
-      <c r="E19" s="1">
-        <v>13</v>
-      </c>
-      <c r="F19" s="1">
-        <v>13</v>
+      <c r="D19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="1">
-        <v>12</v>
-      </c>
-      <c r="E20" s="1">
-        <v>8</v>
-      </c>
-      <c r="F20" s="1">
-        <v>6</v>
+      <c r="D20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="1">
-        <v>12</v>
-      </c>
-      <c r="E21" s="1">
-        <v>7</v>
-      </c>
-      <c r="F21" s="1">
-        <v>5</v>
+      <c r="D21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="1">
-        <v>13</v>
-      </c>
-      <c r="E22" s="1">
-        <v>8</v>
-      </c>
-      <c r="F22" s="1">
-        <v>6</v>
+      <c r="D22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
